--- a/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>problem</t>
   </si>
   <si>
     <t>falling</t>
@@ -70,30 +73,27 @@
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>low</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -103,30 +103,33 @@
     <t>cut</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>or</t>
   </si>
   <si>
@@ -136,238 +139,232 @@
     <t>prices</t>
   </si>
   <si>
-    <t>from</t>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>we</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>at</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>'</t>
   </si>
 </sst>
 </file>
@@ -725,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -844,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -962,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,31 +1059,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L8">
-        <v>97</v>
-      </c>
-      <c r="M8">
-        <v>97</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.856020942408377</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,49 +1141,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>0.8359375</v>
+      </c>
+      <c r="L10">
+        <v>107</v>
+      </c>
+      <c r="M10">
+        <v>107</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="L10">
-        <v>40</v>
-      </c>
-      <c r="M10">
-        <v>40</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.8461538461538461</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.84375</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6101694915254238</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C15">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D15">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.8207547169811321</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5608465608465608</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.813953488372093</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5135135135135135</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L18">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5128205128205128</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4899328859060403</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.795774647887324</v>
+        <v>0.775</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4555555555555555</v>
+        <v>0.475</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D21">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,28 +1762,28 @@
         <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.7741935483870968</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,16 +1812,16 @@
         <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.725</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1841,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3666666666666666</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.6764705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L26">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M26">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3174603174603174</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.66</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3125</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2062,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2086,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2857142857142857</v>
+        <v>0.2875</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.6305084745762712</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,13 +2141,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2332439678284182</v>
+        <v>0.2117962466487936</v>
       </c>
       <c r="C30">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.6179775280898876</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2194,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1666666666666667</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2212,31 +2209,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.6176470588235294</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L31">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,13 +2241,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05978260869565218</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2262,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.6170212765957447</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="M32">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,37 +2291,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03658141793460667</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="C33">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2976</v>
+        <v>348</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,37 +2341,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03642671292281006</v>
+        <v>0.04047927461139896</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="E34">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F34">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1111</v>
+        <v>2963</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.5757575757575758</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,37 +2391,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03236245954692556</v>
+        <v>0.03457216940363008</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E35">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="F35">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>598</v>
+        <v>1117</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.5571428571428572</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,37 +2441,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.03164855928200284</v>
+        <v>0.03110599078341014</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="F36">
-        <v>0.72</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2050</v>
+        <v>841</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.5294117647058824</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2486,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2494,49 +2491,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03129445234708392</v>
+        <v>0.02548853016142736</v>
       </c>
       <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>0.29</v>
+      </c>
+      <c r="F37">
+        <v>0.71</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2294</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L37">
         <v>22</v>
-      </c>
-      <c r="D37">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>0.19</v>
-      </c>
-      <c r="F37">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>681</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
       </c>
       <c r="M37">
         <v>22</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,37 +2541,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02896081771720613</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E38">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="F38">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2280</v>
+        <v>2070</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.5111111111111111</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2594,37 +2591,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02555168408826946</v>
+        <v>0.01950354609929078</v>
       </c>
       <c r="C39">
         <v>22</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="F39">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>839</v>
+        <v>1106</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.4657534246575342</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2644,37 +2641,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01987281399046105</v>
+        <v>0.01755424063116371</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E40">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="F40">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1233</v>
+        <v>4981</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2694,37 +2691,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01946902654867257</v>
+        <v>0.01580333625987709</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="F41">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1108</v>
+        <v>2242</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.3859649122807017</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2736,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2744,49 +2741,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01755926251097454</v>
+        <v>0.01550071384866408</v>
       </c>
       <c r="C42">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>169</v>
+      </c>
+      <c r="E42">
+        <v>0.55</v>
+      </c>
+      <c r="F42">
+        <v>0.45</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4827</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>0.375</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>40</v>
-      </c>
-      <c r="D42">
-        <v>71</v>
-      </c>
-      <c r="E42">
-        <v>0.44</v>
-      </c>
-      <c r="F42">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2238</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K42">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2794,37 +2791,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01682396389002873</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="F43">
-        <v>0.4</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4792</v>
+        <v>1328</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.3728813559322034</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2844,31 +2841,31 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01557263946382811</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C44">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E44">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F44">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>4994</v>
+        <v>4189</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.328125</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L44">
         <v>21</v>
@@ -2886,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2894,49 +2891,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01511969760604788</v>
+        <v>0.01343973120537589</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E45">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="F45">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.2380952380952381</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N45">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,37 +2941,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0148578811369509</v>
+        <v>0.01286549707602339</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="E46">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="F46">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1525</v>
+        <v>2532</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>0.217741935483871</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2986,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2994,37 +2991,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01480384900074019</v>
+        <v>0.01188946015424164</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E47">
-        <v>0.38</v>
+        <v>0.71</v>
       </c>
       <c r="F47">
-        <v>0.62</v>
+        <v>0.29</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1331</v>
+        <v>3075</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.1135135135135135</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3036,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3044,589 +3041,517 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0132387706855792</v>
+        <v>0.01084905660377358</v>
       </c>
       <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <v>0.62</v>
+      </c>
+      <c r="F48">
+        <v>0.38</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2097</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0.1328671328671329</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49">
+        <v>0.09879518072289156</v>
+      </c>
+      <c r="L49">
+        <v>41</v>
+      </c>
+      <c r="M49">
+        <v>42</v>
+      </c>
+      <c r="N49">
+        <v>0.98</v>
+      </c>
+      <c r="O49">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L50">
         <v>28</v>
       </c>
-      <c r="D48">
-        <v>71</v>
-      </c>
-      <c r="E48">
-        <v>0.61</v>
-      </c>
-      <c r="F48">
-        <v>0.39</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2087</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="M50">
+        <v>28</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K48">
-        <v>0.09446254071661238</v>
-      </c>
-      <c r="L48">
+      <c r="K51">
+        <v>0.07780979827089338</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
         <v>29</v>
       </c>
-      <c r="M48">
-        <v>30</v>
-      </c>
-      <c r="N48">
-        <v>0.97</v>
-      </c>
-      <c r="O48">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.01249116191374028</v>
-      </c>
-      <c r="C49">
-        <v>53</v>
-      </c>
-      <c r="D49">
-        <v>138</v>
-      </c>
-      <c r="E49">
-        <v>0.62</v>
-      </c>
-      <c r="F49">
-        <v>0.38</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4190</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="N51">
+        <v>0.93</v>
+      </c>
+      <c r="O51">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K49">
-        <v>0.07380073800738007</v>
-      </c>
-      <c r="L49">
+      <c r="K52">
+        <v>0.07466442953020135</v>
+      </c>
+      <c r="L52">
+        <v>89</v>
+      </c>
+      <c r="M52">
+        <v>97</v>
+      </c>
+      <c r="N52">
+        <v>0.92</v>
+      </c>
+      <c r="O52">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53">
+        <v>0.06813996316758748</v>
+      </c>
+      <c r="L53">
+        <v>37</v>
+      </c>
+      <c r="M53">
+        <v>41</v>
+      </c>
+      <c r="N53">
+        <v>0.9</v>
+      </c>
+      <c r="O53">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="L54">
         <v>40</v>
       </c>
-      <c r="M49">
-        <v>45</v>
-      </c>
-      <c r="N49">
-        <v>0.89</v>
-      </c>
-      <c r="O49">
-        <v>0.11</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.01129396579541788</v>
-      </c>
-      <c r="C50">
-        <v>35</v>
-      </c>
-      <c r="D50">
-        <v>137</v>
-      </c>
-      <c r="E50">
-        <v>0.74</v>
-      </c>
-      <c r="F50">
-        <v>0.26</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>3064</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50">
-        <v>0.0728643216080402</v>
-      </c>
-      <c r="L50">
-        <v>87</v>
-      </c>
-      <c r="M50">
-        <v>93</v>
-      </c>
-      <c r="N50">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O50">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1" t="s">
+      <c r="M54">
+        <v>41</v>
+      </c>
+      <c r="N54">
+        <v>0.98</v>
+      </c>
+      <c r="O54">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55">
+        <v>0.04381846635367762</v>
+      </c>
+      <c r="L55">
+        <v>28</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <v>0.72</v>
+      </c>
+      <c r="O55">
+        <v>0.28</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56">
+        <v>0.0427263479145473</v>
+      </c>
+      <c r="L56">
+        <v>42</v>
+      </c>
+      <c r="M56">
+        <v>48</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57">
+        <v>0.04251386321626617</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>0.88</v>
+      </c>
+      <c r="O57">
+        <v>0.12</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>0.04090909090909091</v>
+      </c>
+      <c r="L58">
+        <v>108</v>
+      </c>
+      <c r="M58">
+        <v>141</v>
+      </c>
+      <c r="N58">
+        <v>0.77</v>
+      </c>
+      <c r="O58">
+        <v>0.23</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K59">
+        <v>0.03177257525083612</v>
+      </c>
+      <c r="L59">
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <v>0.73</v>
+      </c>
+      <c r="O59">
+        <v>0.27</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60">
+        <v>0.02980392156862745</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>52</v>
+      </c>
+      <c r="N60">
+        <v>0.73</v>
+      </c>
+      <c r="O60">
+        <v>0.27</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K61">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L61">
+        <v>68</v>
+      </c>
+      <c r="M61">
+        <v>82</v>
+      </c>
+      <c r="N61">
+        <v>0.83</v>
+      </c>
+      <c r="O61">
+        <v>0.17</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62">
+        <v>0.02812895069532238</v>
+      </c>
+      <c r="L62">
+        <v>89</v>
+      </c>
+      <c r="M62">
+        <v>126</v>
+      </c>
+      <c r="N62">
+        <v>0.71</v>
+      </c>
+      <c r="O62">
+        <v>0.29</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63">
+        <v>0.02652300041442188</v>
+      </c>
+      <c r="L63">
+        <v>64</v>
+      </c>
+      <c r="M63">
+        <v>96</v>
+      </c>
+      <c r="N63">
+        <v>0.67</v>
+      </c>
+      <c r="O63">
+        <v>0.33</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64">
+        <v>0.025965801139962</v>
+      </c>
+      <c r="L64">
+        <v>41</v>
+      </c>
+      <c r="M64">
         <v>56</v>
       </c>
-      <c r="B51">
-        <v>0.01126651126651127</v>
-      </c>
-      <c r="C51">
-        <v>29</v>
-      </c>
-      <c r="D51">
-        <v>128</v>
-      </c>
-      <c r="E51">
-        <v>0.77</v>
-      </c>
-      <c r="F51">
-        <v>0.23</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2545</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0.07163323782234957</v>
-      </c>
-      <c r="L51">
-        <v>25</v>
-      </c>
-      <c r="M51">
-        <v>25</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52">
-        <v>0.07004830917874397</v>
-      </c>
-      <c r="L52">
-        <v>29</v>
-      </c>
-      <c r="M52">
-        <v>33</v>
-      </c>
-      <c r="N52">
-        <v>0.88</v>
-      </c>
-      <c r="O52">
-        <v>0.12</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53">
-        <v>0.06987951807228916</v>
-      </c>
-      <c r="L53">
-        <v>29</v>
-      </c>
-      <c r="M53">
-        <v>30</v>
-      </c>
-      <c r="N53">
-        <v>0.97</v>
-      </c>
-      <c r="O53">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L54">
-        <v>19</v>
-      </c>
-      <c r="M54">
-        <v>19</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55">
-        <v>0.03744326777609682</v>
-      </c>
-      <c r="L55">
-        <v>99</v>
-      </c>
-      <c r="M55">
-        <v>128</v>
-      </c>
-      <c r="N55">
-        <v>0.77</v>
-      </c>
-      <c r="O55">
-        <v>0.23</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K56">
-        <v>0.03672787979966611</v>
-      </c>
-      <c r="L56">
-        <v>22</v>
-      </c>
-      <c r="M56">
-        <v>28</v>
-      </c>
-      <c r="N56">
-        <v>0.79</v>
-      </c>
-      <c r="O56">
-        <v>0.21</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57">
-        <v>0.03462321792260693</v>
-      </c>
-      <c r="L57">
-        <v>34</v>
-      </c>
-      <c r="M57">
-        <v>41</v>
-      </c>
-      <c r="N57">
-        <v>0.83</v>
-      </c>
-      <c r="O57">
-        <v>0.17</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K58">
-        <v>0.03221730890713834</v>
-      </c>
-      <c r="L58">
-        <v>102</v>
-      </c>
-      <c r="M58">
-        <v>137</v>
-      </c>
-      <c r="N58">
-        <v>0.74</v>
-      </c>
-      <c r="O58">
-        <v>0.26</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K59">
-        <v>0.03114571746384872</v>
-      </c>
-      <c r="L59">
-        <v>28</v>
-      </c>
-      <c r="M59">
-        <v>30</v>
-      </c>
-      <c r="N59">
-        <v>0.93</v>
-      </c>
-      <c r="O59">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60">
-        <v>0.02928071292170592</v>
-      </c>
-      <c r="L60">
-        <v>46</v>
-      </c>
-      <c r="M60">
-        <v>69</v>
-      </c>
-      <c r="N60">
-        <v>0.67</v>
-      </c>
-      <c r="O60">
-        <v>0.33</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K61">
-        <v>0.02692469499368953</v>
-      </c>
-      <c r="L61">
-        <v>64</v>
-      </c>
-      <c r="M61">
-        <v>81</v>
-      </c>
-      <c r="N61">
-        <v>0.79</v>
-      </c>
-      <c r="O61">
-        <v>0.21</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>0.0265670402656704</v>
-      </c>
-      <c r="L62">
-        <v>64</v>
-      </c>
-      <c r="M62">
-        <v>100</v>
-      </c>
-      <c r="N62">
-        <v>0.64</v>
-      </c>
-      <c r="O62">
-        <v>0.36</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K63">
-        <v>0.02606177606177606</v>
-      </c>
-      <c r="L63">
-        <v>27</v>
-      </c>
-      <c r="M63">
-        <v>31</v>
-      </c>
-      <c r="N63">
-        <v>0.87</v>
-      </c>
-      <c r="O63">
-        <v>0.13</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K64">
-        <v>0.0259009009009009</v>
-      </c>
-      <c r="L64">
-        <v>23</v>
-      </c>
-      <c r="M64">
-        <v>29</v>
-      </c>
       <c r="N64">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="O64">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>865</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>0.02482702482702483</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="L65">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="N65">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="O65">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>4792</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K66">
-        <v>0.0245253164556962</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N66">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="O66">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1233</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3634,155 +3559,155 @@
         <v>116</v>
       </c>
       <c r="K67">
-        <v>0.02395964691046658</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N67">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>774</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>0.02018779342723005</v>
+        <v>0.01890243902439024</v>
       </c>
       <c r="L68">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="M68">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="N68">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="O68">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2087</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>0.01988304093567252</v>
+        <v>0.01873975169829</v>
       </c>
       <c r="L69">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M69">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N69">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="O69">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4190</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>0.01925025329280649</v>
+        <v>0.01871552403467297</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="M70">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="N70">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="O70">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>968</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K71">
-        <v>0.01808887141171844</v>
+        <v>0.01779859484777518</v>
       </c>
       <c r="L71">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="M71">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="N71">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="O71">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>4994</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>0.01366240634640811</v>
+        <v>0.01363836339639243</v>
       </c>
       <c r="L72">
         <v>31</v>
       </c>
       <c r="M72">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N72">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="O72">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2238</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3790,51 +3715,77 @@
         <v>43</v>
       </c>
       <c r="K73">
-        <v>0.01341410644742536</v>
+        <v>0.01334604385128694</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M73">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N73">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="O73">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2280</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>0.01252408477842004</v>
+        <v>0.01078050884001725</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N74">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="O74">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2050</v>
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75">
+        <v>0.006371562709590879</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>144</v>
+      </c>
+      <c r="N75">
+        <v>0.13</v>
+      </c>
+      <c r="O75">
+        <v>0.87</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2963</v>
       </c>
     </row>
   </sheetData>
